--- a/Proyecto-Kiosco-main(thiago)/data/cierres/cierres.xlsx
+++ b/Proyecto-Kiosco-main(thiago)/data/cierres/cierres.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,20 +456,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-    </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
@@ -558,13 +544,11 @@
           <t>9000.00</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
           <t>0.00</t>
@@ -588,6 +572,82 @@
       <c r="M4" t="inlineStr">
         <is>
           <t>50000.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-11-06 01:04:03</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2000.00</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1000.00</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>29999.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>28999.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-11-06 01:36:21</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>4500.00</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1000.00</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9000.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>5500.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>0.00</t>
         </is>
       </c>
     </row>
